--- a/lab5/res/results.xlsx
+++ b/lab5/res/results.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t xml:space="preserve">no balance</t>
   </si>
@@ -29,16 +29,28 @@
     <t xml:space="preserve">balanced</t>
   </si>
   <si>
-    <t xml:space="preserve">count process</t>
+    <t xml:space="preserve">effectiveness</t>
   </si>
   <si>
-    <t xml:space="preserve">Disbalance, %</t>
+    <t xml:space="preserve">count process</t>
   </si>
   <si>
     <t xml:space="preserve">max time, sec</t>
   </si>
   <si>
+    <t xml:space="preserve">disbalance, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disbalance difference</t>
+  </si>
+  <si>
     <t xml:space="preserve">count nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disbalance, %</t>
   </si>
   <si>
     <t xml:space="preserve">Везде было выделено 
@@ -53,14 +65,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,16 +93,24 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +129,20 @@
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF55308D"/>
+        <bgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -132,6 +166,20 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="thin"/>
       <top/>
       <bottom/>
@@ -146,6 +194,34 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
@@ -155,6 +231,20 @@
       <left/>
       <right style="thin"/>
       <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -184,53 +274,125 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -281,7 +443,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -298,7 +460,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFB85C00"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -318,12 +480,1050 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
+              <a:t>Зависимость времени от числа процессов
+без балансировки</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'count process test'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max time, sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'count process test'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'count process test'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="72435389"/>
+        <c:axId val="16824013"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="72435389"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>процессов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16824013"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="16824013"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>секунд</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72435389"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
+              <a:t>Зависимость времени от числа процессов
+используется балансировка</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'count process test'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max time, sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'count process test'!$E$3:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'count process test'!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="83409040"/>
+        <c:axId val="68249590"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83409040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>число процессов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68249590"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68249590"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>время, секунд</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83409040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
+              <a:t>Зависимость разницы между вариантами</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17712950278024"/>
+          <c:y val="0.210564930300807"/>
+          <c:w val="0.787734708679185"/>
+          <c:h val="0.603374908290536"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'count process test'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time difference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'count process test'!$I$3:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'count process test'!$J$3:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="86571155"/>
+        <c:axId val="95628794"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86571155"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>количество процессов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95628794"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95628794"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>разница, секунд</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86571155"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Одинаковое число работы на разном числе узлов
 нет балансировки</a:t>
@@ -379,11 +1579,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -442,11 +1647,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="46212893"/>
-        <c:axId val="23072308"/>
+        <c:axId val="13962983"/>
+        <c:axId val="20488875"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46212893"/>
+        <c:axId val="13962983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,12 +1674,20 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
                   <a:t>число узлов</a:t>
                 </a:r>
@@ -489,7 +1702,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -506,12 +1719,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23072308"/>
+        <c:crossAx val="20488875"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -519,7 +1736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23072308"/>
+        <c:axId val="20488875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,12 +1759,20 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
                   <a:t>секунд</a:t>
                 </a:r>
@@ -562,7 +1787,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -579,12 +1804,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46212893"/>
+        <c:crossAx val="13962983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -612,7 +1841,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -632,7 +1865,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -645,12 +1878,20 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Одинаковое число работы на разном числе узлов
 используется балансировка</a:t>
@@ -706,11 +1947,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -769,11 +2015,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="79007222"/>
-        <c:axId val="84143585"/>
+        <c:axId val="93952967"/>
+        <c:axId val="89945529"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79007222"/>
+        <c:axId val="93952967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,12 +2042,20 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
                   <a:t>число узлов</a:t>
                 </a:r>
@@ -816,7 +2070,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -833,12 +2087,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84143585"/>
+        <c:crossAx val="89945529"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -846,13 +2104,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84143585"/>
+        <c:axId val="89945529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -869,12 +2127,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79007222"/>
+        <c:crossAx val="93952967"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -902,7 +2164,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -927,15 +2193,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238320</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:colOff>37080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>649080</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>237600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -943,8 +2209,103 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
+        <a:off x="37080" y="1030680"/>
+        <a:ext cx="3116520" cy="2905200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>735840</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3277080" y="1000800"/>
+        <a:ext cx="3232800" cy="3200400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>451080</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6660000" y="1211760"/>
+        <a:ext cx="4466880" cy="2453040"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>648720</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>155520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
         <a:off x="238320" y="3858840"/>
-        <a:ext cx="3942000" cy="2311920"/>
+        <a:ext cx="3941640" cy="2311560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -963,18 +2324,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>176760</xdr:colOff>
+      <xdr:colOff>176400</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="147960" y="1071720"/>
-        <a:ext cx="4372920" cy="2685240"/>
+        <a:ext cx="4372560" cy="2684880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1098,116 +2459,199 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>83.33</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="B3" s="9" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <f aca="false">A3</f>
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>240</v>
+      <c r="F3" s="11" t="n">
+        <v>1173</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="I3" s="12" t="n">
+        <f aca="false">A3</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="13" t="n">
+        <f aca="false">B3-F3</f>
+        <v>237</v>
+      </c>
+      <c r="K3" s="14" t="n">
+        <f aca="false">C3-G3</f>
+        <v>18.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>84.61</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>156</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="B4" s="9" t="n">
+        <v>755</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>92.71</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <f aca="false">A4</f>
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>61.53</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>156</v>
+      <c r="F4" s="11" t="n">
+        <v>485</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <f aca="false">A4</f>
+        <v>8</v>
+      </c>
+      <c r="J4" s="15" t="n">
+        <f aca="false">B4-F4</f>
+        <v>270</v>
+      </c>
+      <c r="K4" s="16" t="n">
+        <f aca="false">C4-G4</f>
+        <v>58.07</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="E5" s="7" t="n">
+      <c r="B5" s="18" t="n">
+        <v>390</v>
+      </c>
+      <c r="C5" s="19" t="n">
+        <v>96.15</v>
+      </c>
+      <c r="E5" s="19" t="n">
+        <f aca="false">A5</f>
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <v>84.99</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>79.999</v>
+      <c r="F5" s="20" t="n">
+        <v>690</v>
+      </c>
+      <c r="G5" s="19" t="n">
+        <v>89.56</v>
+      </c>
+      <c r="I5" s="17" t="n">
+        <f aca="false">A5</f>
+        <v>16</v>
+      </c>
+      <c r="J5" s="21" t="n">
+        <f aca="false">B5-F5</f>
+        <v>-300</v>
+      </c>
+      <c r="K5" s="22" t="n">
+        <f aca="false">C5-G5</f>
+        <v>6.59</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="10.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1216,6 +2660,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1227,127 +2672,127 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>83.33</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>83.33</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>83.33</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>26.6</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J6" s="10" t="s">
-        <v>6</v>
+      <c r="J6" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="10"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J8" s="10"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="10"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J11" s="11" t="s">
-        <v>7</v>
+      <c r="J11" s="24" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/lab5/res/results.xlsx
+++ b/lab5/res/results.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="count process test" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="count nodes test" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="count nodes test" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="count process test" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="count process (resized)" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t xml:space="preserve">no balance</t>
   </si>
@@ -29,25 +30,10 @@
     <t xml:space="preserve">balanced</t>
   </si>
   <si>
-    <t xml:space="preserve">effectiveness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count process</t>
+    <t xml:space="preserve">count nodes</t>
   </si>
   <si>
     <t xml:space="preserve">max time, sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disbalance, %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disbalance difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count nodes</t>
   </si>
   <si>
     <t xml:space="preserve">Disbalance, %</t>
@@ -60,14 +46,37 @@
   <si>
     <t xml:space="preserve">Число задач:20</t>
   </si>
+  <si>
+    <t xml:space="preserve">effectiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disbalance, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time difference, s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceleration, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per process</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -131,14 +140,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF55308D"/>
-        <bgColor rgb="FF333333"/>
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA6A6"/>
-        <bgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FF55308D"/>
+        <bgColor rgb="FF333333"/>
       </patternFill>
     </fill>
   </fills>
@@ -154,6 +163,13 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -161,14 +177,7 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -182,34 +191,6 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -229,6 +210,34 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
@@ -236,14 +245,14 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
-      <top/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -274,7 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,19 +296,79 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,23 +376,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,7 +404,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,60 +428,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -443,7 +488,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFFA6A6"/>
+      <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -468,6 +513,697 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
+              <a:t>Одинаковое число работы на разном числе узлов
+нет балансировки</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'count nodes test'!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max time, sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'count nodes test'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'count nodes test'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2200.02559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2199.999464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="80607896"/>
+        <c:axId val="7781096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80607896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>число узлов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7781096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="7781096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>секунд</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80607896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
+              <a:t>Одинаковое число работы на разном числе узлов
+используется балансировка</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'count nodes test'!$F$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max time, sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'count nodes test'!$E$3:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'count nodes test'!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1615.124794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1615.040122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1615.084335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="73017388"/>
+        <c:axId val="22452053"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73017388"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>число узлов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22452053"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="22452053"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73017388"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -578,13 +1314,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -595,14 +1331,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1410</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>755</c:v>
+                  <c:v>2199.999464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>390</c:v>
+                  <c:v>1133.99845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,11 +1350,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="72435389"/>
-        <c:axId val="16824013"/>
+        <c:axId val="40675379"/>
+        <c:axId val="20964185"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72435389"/>
+        <c:axId val="40675379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +1431,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16824013"/>
+        <c:crossAx val="20964185"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -706,7 +1439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16824013"/>
+        <c:axId val="20964185"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +1516,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72435389"/>
+        <c:crossAx val="40675379"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -797,7 +1530,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -810,7 +1543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -921,13 +1654,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -939,13 +1672,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1173</c:v>
+                  <c:v>3576.060481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>485</c:v>
+                  <c:v>1615.025193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>690</c:v>
+                  <c:v>1017.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,11 +1693,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="83409040"/>
-        <c:axId val="68249590"/>
+        <c:axId val="76133371"/>
+        <c:axId val="7395907"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83409040"/>
+        <c:axId val="76133371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1765,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68249590"/>
+        <c:crossAx val="7395907"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1040,7 +1773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68249590"/>
+        <c:axId val="7395907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1850,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83409040"/>
+        <c:crossAx val="76133371"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1144,7 +1877,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1192,10 +1925,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17712950278024"/>
-          <c:y val="0.210564930300807"/>
-          <c:w val="0.787734708679185"/>
-          <c:h val="0.603374908290536"/>
+          <c:x val="0.177158055936165"/>
+          <c:y val="0.21062674299134"/>
+          <c:w val="0.787539292334972"/>
+          <c:h val="0.603258476442096"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1210,7 +1943,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time difference</c:v>
+                  <c:v>time difference, s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1265,13 +1998,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1282,14 +2015,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>237</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>270</c:v>
+                  <c:v>584.974271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-300</c:v>
+                  <c:v>116.89845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,11 +2034,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="86571155"/>
-        <c:axId val="95628794"/>
+        <c:axId val="1268863"/>
+        <c:axId val="90786579"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86571155"/>
+        <c:axId val="1268863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +2115,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95628794"/>
+        <c:crossAx val="90786579"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,7 +2123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95628794"/>
+        <c:axId val="90786579"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +2200,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86571155"/>
+        <c:crossAx val="1268863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1484,7 +2214,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1497,7 +2227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1525,8 +2255,8 @@
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
-              <a:t>Одинаковое число работы на разном числе узлов
-нет балансировки</a:t>
+              <a:t>Зависимость времени от числа процессов
+без балансировки</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1549,11 +2279,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'count nodes test'!$B$2:$B$2</c:f>
+              <c:f>'count process (resized)'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Disbalance, %</c:v>
+                  <c:v>max time, sec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1604,36 +2334,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'count nodes test'!$A$3:$A$5</c:f>
+              <c:f>'count process (resized)'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'count nodes test'!$B$3:$B$5</c:f>
+              <c:f>'count process (resized)'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>83.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83.33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.33</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1647,11 +2368,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="13962983"/>
-        <c:axId val="20488875"/>
+        <c:axId val="22720282"/>
+        <c:axId val="80017167"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13962983"/>
+        <c:axId val="22720282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +2410,7 @@
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
-                  <a:t>число узлов</a:t>
+                  <a:t>процессов</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1728,7 +2449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20488875"/>
+        <c:crossAx val="80017167"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1736,7 +2457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20488875"/>
+        <c:axId val="80017167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +2534,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13962983"/>
+        <c:crossAx val="22720282"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1826,31 +2547,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -1865,7 +2561,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1893,7 +2589,7 @@
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
-              <a:t>Одинаковое число работы на разном числе узлов
+              <a:t>Зависимость времени от числа процессов
 используется балансировка</a:t>
             </a:r>
           </a:p>
@@ -1917,11 +2613,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'count nodes test'!$F$2</c:f>
+              <c:f>'count process (resized)'!$G$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Disbalance, %</c:v>
+                  <c:v>max time, sec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1972,35 +2668,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'count nodes test'!$E$3:$E$5</c:f>
+              <c:f>'count process (resized)'!$F$3:$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'count nodes test'!$F$3:$F$5</c:f>
+              <c:f>'count process (resized)'!$G$3:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.6</c:v>
+                  <c:v>1931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,25 +2711,16 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="93952967"/>
-        <c:axId val="89945529"/>
+        <c:axId val="58012101"/>
+        <c:axId val="26397883"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93952967"/>
+        <c:axId val="58012101"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2057,7 +2744,7 @@
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
-                  <a:t>число узлов</a:t>
+                  <a:t>число процессов</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2096,7 +2783,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89945529"/>
+        <c:crossAx val="26397883"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2104,12 +2791,57 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89945529"/>
+        <c:axId val="26397883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>время, секунд</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2136,7 +2868,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93952967"/>
+        <c:crossAx val="58012101"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2149,8 +2881,53 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
+              <a:t>Зависимость разницы между вариантами</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2158,22 +2935,305 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.177158055936165"/>
+          <c:y val="0.21062674299134"/>
+          <c:w val="0.787539292334972"/>
+          <c:h val="0.603258476442096"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'count process (resized)'!$L$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time difference, s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'count process (resized)'!$K$3:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'count process (resized)'!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="54232048"/>
+        <c:axId val="55191606"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54232048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>количество процессов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55191606"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55191606"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>разница, секунд</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54232048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -2193,15 +3253,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:colOff>238320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>237600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>648000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2209,8 +3269,73 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
+        <a:off x="238320" y="3858840"/>
+        <a:ext cx="3940920" cy="2310840"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>96480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>385560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="147960" y="1071720"/>
+        <a:ext cx="2955960" cy="2130840"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>37080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
         <a:off x="37080" y="1030680"/>
-        <a:ext cx="3116520" cy="2905200"/>
+        <a:ext cx="3115080" cy="2904480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2229,18 +3354,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>735840</xdr:colOff>
+      <xdr:colOff>735120</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3277080" y="1000800"/>
-        <a:ext cx="3232800" cy="3200400"/>
+        <a:off x="3276360" y="1000800"/>
+        <a:ext cx="3232080" cy="3199680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2259,18 +3384,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>451080</xdr:colOff>
+      <xdr:colOff>321480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6660000" y="1211760"/>
-        <a:ext cx="4466880" cy="2453040"/>
+        <a:off x="6659280" y="1211760"/>
+        <a:ext cx="4466160" cy="2452320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2283,29 +3408,29 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238320</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:colOff>37080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>648720</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1136160</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="238320" y="3858840"/>
-        <a:ext cx="3941640" cy="2311560"/>
+        <a:off x="37080" y="1030680"/>
+        <a:ext cx="3115080" cy="2904480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2317,29 +3442,59 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>176400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>713520</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="6" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="147960" y="1071720"/>
-        <a:ext cx="4372560" cy="2684880"/>
+        <a:off x="3642120" y="1000800"/>
+        <a:ext cx="3232080" cy="3199680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1154160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8461440" y="1211760"/>
+        <a:ext cx="4466160" cy="2452320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2459,10 +3614,158 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>2200.02559</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>85.22</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>1615.124794</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>52.19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>1615.040122</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>52.19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>2199.999464</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>85.22</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>1615.084335</v>
+      </c>
+      <c r="G5" s="14" t="n">
+        <v>52.19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J6" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="J6:J9"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2475,175 +3778,173 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="I1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>7</v>
+      <c r="G2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="n">
-        <v>1410</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>85</v>
-      </c>
-      <c r="E3" s="10" t="n">
+      <c r="A3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <f aca="false">A3</f>
-        <v>4</v>
-      </c>
-      <c r="F3" s="11" t="n">
-        <v>1173</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>66.75</v>
-      </c>
-      <c r="I3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="24" t="n">
+        <v>3576.060481</v>
+      </c>
+      <c r="G3" s="23" t="n">
+        <v>58.77</v>
+      </c>
+      <c r="I3" s="7" t="n">
         <f aca="false">A3</f>
-        <v>4</v>
-      </c>
-      <c r="J3" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="25" t="e">
         <f aca="false">B3-F3</f>
-        <v>237</v>
-      </c>
-      <c r="K3" s="14" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" s="7" t="e">
         <f aca="false">C3-G3</f>
-        <v>18.25</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9" t="n">
-        <v>755</v>
-      </c>
-      <c r="C4" s="10" t="n">
-        <v>92.71</v>
-      </c>
-      <c r="E4" s="10" t="n">
+      <c r="A4" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>2199.999464</v>
+      </c>
+      <c r="C4" s="23" t="n">
+        <v>85.22</v>
+      </c>
+      <c r="E4" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="24" t="n">
+        <v>1615.025193</v>
+      </c>
+      <c r="G4" s="23" t="n">
+        <v>52.19</v>
+      </c>
+      <c r="I4" s="23" t="n">
         <f aca="false">A4</f>
-        <v>8</v>
-      </c>
-      <c r="F4" s="11" t="n">
-        <v>485</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>34.64</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <f aca="false">A4</f>
-        <v>8</v>
-      </c>
-      <c r="J4" s="15" t="n">
-        <f aca="false">B4-F4</f>
-        <v>270</v>
-      </c>
-      <c r="K4" s="16" t="n">
-        <f aca="false">C4-G4</f>
-        <v>58.07</v>
+        <v>4</v>
+      </c>
+      <c r="J4" s="26" t="n">
+        <f aca="false">(B4-F4)</f>
+        <v>584.974271</v>
+      </c>
+      <c r="K4" s="27" t="n">
+        <f aca="false">((J4)/B4)*100</f>
+        <v>26.5897460691381</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B5" s="18" t="n">
-        <v>390</v>
-      </c>
-      <c r="C5" s="19" t="n">
-        <v>96.15</v>
-      </c>
-      <c r="E5" s="19" t="n">
+      <c r="A5" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>1133.99845</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>91.97</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="28" t="n">
+        <v>1017.1</v>
+      </c>
+      <c r="G5" s="14" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="I5" s="14" t="n">
         <f aca="false">A5</f>
-        <v>16</v>
-      </c>
-      <c r="F5" s="20" t="n">
-        <v>690</v>
-      </c>
-      <c r="G5" s="19" t="n">
-        <v>89.56</v>
-      </c>
-      <c r="I5" s="17" t="n">
-        <f aca="false">A5</f>
-        <v>16</v>
-      </c>
-      <c r="J5" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="29" t="n">
         <f aca="false">B5-F5</f>
-        <v>-300</v>
-      </c>
-      <c r="K5" s="22" t="n">
+        <v>116.89845</v>
+      </c>
+      <c r="K5" s="30" t="n">
         <f aca="false">C5-G5</f>
-        <v>6.59</v>
+        <v>9.56999999999999</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="10.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2664,142 +3965,236 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="K1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>4</v>
+      <c r="K2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>83.33</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>240</v>
+      <c r="A3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="F3" s="7" t="n">
+        <f aca="false">A3</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="24" t="n">
+        <v>531</v>
+      </c>
+      <c r="H3" s="25" t="n">
+        <f aca="false">C3</f>
+        <v>40</v>
+      </c>
+      <c r="I3" s="23" t="n">
+        <v>45</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <f aca="false">A3</f>
+        <v>2</v>
+      </c>
+      <c r="L3" s="25" t="n">
+        <f aca="false">B3-G3</f>
+        <v>-531</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <f aca="false">D3-I3</f>
+        <v>-45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>83.33</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>240</v>
+      <c r="A4" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="F4" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="24" t="n">
+        <v>945</v>
+      </c>
+      <c r="H4" s="35" t="n">
+        <f aca="false">C4</f>
+        <v>80</v>
+      </c>
+      <c r="I4" s="23" t="n">
+        <v>40</v>
+      </c>
+      <c r="K4" s="23" t="n">
+        <f aca="false">A4</f>
+        <v>4</v>
+      </c>
+      <c r="L4" s="26" t="n">
+        <f aca="false">(B4-G4)</f>
+        <v>-945</v>
+      </c>
+      <c r="M4" s="27" t="e">
+        <f aca="false">((L4)/B4)*100</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>83.33</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>240</v>
+      <c r="A5" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="n">
+        <v>160</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="F5" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <v>1931</v>
+      </c>
+      <c r="H5" s="29" t="n">
+        <f aca="false">C5</f>
+        <v>160</v>
+      </c>
+      <c r="I5" s="14" t="n">
+        <v>35</v>
+      </c>
+      <c r="K5" s="14" t="n">
+        <f aca="false">A5</f>
+        <v>8</v>
+      </c>
+      <c r="L5" s="29" t="n">
+        <f aca="false">B5-G5</f>
+        <v>-1931</v>
+      </c>
+      <c r="M5" s="30" t="n">
+        <f aca="false">D5-I5</f>
+        <v>-35</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J6" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J8" s="29"/>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="31" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37" t="n">
+        <v>320</v>
+      </c>
+      <c r="I6" s="38" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="29"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="32"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J11" s="24" t="s">
-        <v>11</v>
-      </c>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="33"/>
     </row>
+    <row r="11" customFormat="false" ht="10.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/lab5/res/results.xlsx
+++ b/lab5/res/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t xml:space="preserve">no balance</t>
   </si>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">Acceleration, %</t>
   </si>
   <si>
-    <t xml:space="preserve">no data</t>
+    <t xml:space="preserve">Tasks per process</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasks per process</t>
+    <t xml:space="preserve">tasks count</t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -250,13 +250,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -283,7 +276,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -428,15 +421,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -662,11 +647,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="80607896"/>
-        <c:axId val="7781096"/>
+        <c:axId val="97930531"/>
+        <c:axId val="99202438"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80607896"/>
+        <c:axId val="97930531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +728,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7781096"/>
+        <c:crossAx val="99202438"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -751,7 +736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7781096"/>
+        <c:axId val="99202438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +813,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80607896"/>
+        <c:crossAx val="97930531"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1030,11 +1015,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="73017388"/>
-        <c:axId val="22452053"/>
+        <c:axId val="29663422"/>
+        <c:axId val="75787013"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73017388"/>
+        <c:axId val="29663422"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1096,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22452053"/>
+        <c:crossAx val="75787013"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1119,7 +1104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22452053"/>
+        <c:axId val="75787013"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1136,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73017388"/>
+        <c:crossAx val="29663422"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1331,6 +1316,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3998</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>2199.999464</c:v>
                 </c:pt>
@@ -1350,11 +1338,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="40675379"/>
-        <c:axId val="20964185"/>
+        <c:axId val="33685326"/>
+        <c:axId val="97124392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40675379"/>
+        <c:axId val="33685326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1419,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20964185"/>
+        <c:crossAx val="97124392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1439,7 +1427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20964185"/>
+        <c:axId val="97124392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1504,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40675379"/>
+        <c:crossAx val="33685326"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1693,11 +1681,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="76133371"/>
-        <c:axId val="7395907"/>
+        <c:axId val="224284"/>
+        <c:axId val="90689460"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76133371"/>
+        <c:axId val="224284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1765,7 +1753,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7395907"/>
+        <c:crossAx val="90689460"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1773,7 +1761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7395907"/>
+        <c:axId val="90689460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,7 +1838,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76133371"/>
+        <c:crossAx val="224284"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1925,10 +1913,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.177158055936165"/>
-          <c:y val="0.21062674299134"/>
-          <c:w val="0.787539292334972"/>
-          <c:h val="0.603258476442096"/>
+          <c:x val="0.177172335966468"/>
+          <c:y val="0.210657662947739"/>
+          <c:w val="0.787441560535225"/>
+          <c:h val="0.603200234879624"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2015,6 +2003,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>421.939519</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>584.974271</c:v>
                 </c:pt>
@@ -2034,11 +2025,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="1268863"/>
-        <c:axId val="90786579"/>
+        <c:axId val="94367066"/>
+        <c:axId val="15680496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1268863"/>
+        <c:axId val="94367066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90786579"/>
+        <c:crossAx val="15680496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2123,7 +2114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90786579"/>
+        <c:axId val="15680496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2191,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1268863"/>
+        <c:crossAx val="94367066"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2368,11 +2359,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="22720282"/>
-        <c:axId val="80017167"/>
+        <c:axId val="79789634"/>
+        <c:axId val="66275045"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22720282"/>
+        <c:axId val="79789634"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2440,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80017167"/>
+        <c:crossAx val="66275045"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +2448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80017167"/>
+        <c:axId val="66275045"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,7 +2525,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22720282"/>
+        <c:crossAx val="79789634"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2711,11 +2702,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="58012101"/>
-        <c:axId val="26397883"/>
+        <c:axId val="44420352"/>
+        <c:axId val="42582343"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58012101"/>
+        <c:axId val="44420352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2783,7 +2774,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26397883"/>
+        <c:crossAx val="42582343"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2791,7 +2782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26397883"/>
+        <c:axId val="42582343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +2859,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58012101"/>
+        <c:crossAx val="44420352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2943,10 +2934,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.177158055936165"/>
-          <c:y val="0.21062674299134"/>
-          <c:w val="0.787539292334972"/>
-          <c:h val="0.603258476442096"/>
+          <c:x val="0.177172335966468"/>
+          <c:y val="0.210657662947739"/>
+          <c:w val="0.787441560535225"/>
+          <c:h val="0.603200234879624"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3055,11 +3046,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="54232048"/>
-        <c:axId val="55191606"/>
+        <c:axId val="44404663"/>
+        <c:axId val="44555208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54232048"/>
+        <c:axId val="44404663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3136,7 +3127,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55191606"/>
+        <c:crossAx val="44555208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3144,7 +3135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55191606"/>
+        <c:axId val="44555208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3212,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54232048"/>
+        <c:crossAx val="44404663"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3259,9 +3250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>648000</xdr:colOff>
+      <xdr:colOff>647640</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3270,7 +3261,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="238320" y="3858840"/>
-        <a:ext cx="3940920" cy="2310840"/>
+        <a:ext cx="3940560" cy="2310480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3289,9 +3280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>385560</xdr:colOff>
+      <xdr:colOff>385200</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3300,7 +3291,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="147960" y="1071720"/>
-        <a:ext cx="2955960" cy="2130840"/>
+        <a:ext cx="2955600" cy="2130480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3324,9 +3315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
+      <xdr:colOff>236520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3335,7 +3326,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="37080" y="1030680"/>
-        <a:ext cx="3115080" cy="2904480"/>
+        <a:ext cx="3114720" cy="2904120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3354,9 +3345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>735120</xdr:colOff>
+      <xdr:colOff>734760</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3365,7 +3356,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3276360" y="1000800"/>
-        <a:ext cx="3232080" cy="3199680"/>
+        <a:ext cx="3231720" cy="3199320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3378,15 +3369,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>321480</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:colOff>611280</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3394,8 +3385,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6659280" y="1211760"/>
-        <a:ext cx="4466160" cy="2452320"/>
+        <a:off x="6949440" y="1269360"/>
+        <a:ext cx="4465800" cy="2451960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3419,9 +3410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1136160</xdr:colOff>
+      <xdr:colOff>1135800</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3430,7 +3421,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="37080" y="1030680"/>
-        <a:ext cx="3115080" cy="2904480"/>
+        <a:ext cx="3114720" cy="2904120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3449,9 +3440,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>713520</xdr:colOff>
+      <xdr:colOff>713160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3460,7 +3451,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3642120" y="1000800"/>
-        <a:ext cx="3232080" cy="3199680"/>
+        <a:ext cx="3231720" cy="3199320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3479,9 +3470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1154160</xdr:colOff>
+      <xdr:colOff>1153800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3490,7 +3481,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8461440" y="1211760"/>
-        <a:ext cx="4466160" cy="2452320"/>
+        <a:ext cx="4465800" cy="2451960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3617,7 +3608,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3765,7 +3756,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
+      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3833,11 +3824,11 @@
       <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>12</v>
+      <c r="B3" s="10" t="n">
+        <v>3998</v>
+      </c>
+      <c r="C3" s="23" t="n">
+        <v>73.11</v>
       </c>
       <c r="E3" s="7" t="n">
         <f aca="false">A3</f>
@@ -3853,13 +3844,13 @@
         <f aca="false">A3</f>
         <v>2</v>
       </c>
-      <c r="J3" s="25" t="e">
+      <c r="J3" s="25" t="n">
         <f aca="false">B3-F3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K3" s="7" t="e">
+        <v>421.939519</v>
+      </c>
+      <c r="K3" s="7" t="n">
         <f aca="false">C3-G3</f>
-        <v>#VALUE!</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,7 +3964,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4022,7 +4013,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>9</v>
@@ -4157,16 +4148,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="31" t="n">
-        <v>16</v>
-      </c>
+      <c r="F6" s="36"/>
       <c r="G6" s="36"/>
-      <c r="H6" s="37" t="n">
-        <v>320</v>
-      </c>
-      <c r="I6" s="38" t="n">
-        <v>71</v>
-      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31"/>
